--- a/Production_Profile/productdata.xlsx
+++ b/Production_Profile/productdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\varsh\PycharmProjects\SizingOffGridMicrogrids\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\varsh\OneDrive\Documents\NTNU\00_MASTER\00MASTER\MASTERKODE\SizingofOff_grid_microgrids\Production_Profile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0015CDDB-DF0B-4564-A90A-54817AF14DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D271DDF-44D8-40E4-8848-06BAF1C9BC78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2370" yWindow="150" windowWidth="15855" windowHeight="15105" xr2:uid="{DB6903CB-CB73-439C-BE90-89BBD3CE7FA7}"/>
+    <workbookView xWindow="-28425" yWindow="2160" windowWidth="28155" windowHeight="15435" activeTab="1" xr2:uid="{DB6903CB-CB73-439C-BE90-89BBD3CE7FA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Battery" sheetId="2" r:id="rId1"/>
@@ -37,16 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
-  <si>
-    <t>PV1</t>
-  </si>
-  <si>
-    <t>PV2</t>
-  </si>
-  <si>
-    <t>PV3</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Battery1</t>
   </si>
@@ -468,7 +459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04AC6BE0-FB58-4ADE-BBC4-B8CFC61971DC}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -476,21 +467,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>500</v>
@@ -504,7 +495,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>7000</v>
@@ -518,7 +509,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>900</v>
@@ -532,13 +523,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -550,8 +541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0F84E61-4F05-4493-8F01-DF88A633332D}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,163 +552,90 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B1">
+        <v>1000</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2">
-        <v>1000</v>
-      </c>
-      <c r="C2">
-        <v>1000</v>
-      </c>
-      <c r="D2">
-        <v>1000</v>
+        <v>49.84</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3">
-        <v>49.84</v>
-      </c>
-      <c r="C3">
-        <v>50</v>
-      </c>
-      <c r="D3">
-        <v>50.16</v>
+        <v>11.34</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>11.34</v>
-      </c>
-      <c r="C4">
-        <v>12.45</v>
-      </c>
-      <c r="D4">
-        <v>13.56</v>
+        <f>0.0006*B3</f>
+        <v>6.8039999999999993E-3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B5">
-        <f>0.0006*B4</f>
-        <v>6.8039999999999993E-3</v>
-      </c>
-      <c r="C5">
-        <f t="shared" ref="C5" si="0">0.0006*C4</f>
-        <v>7.4699999999999992E-3</v>
-      </c>
-      <c r="D5">
-        <f>0.0006*D4</f>
-        <v>8.1359999999999991E-3</v>
+        <f xml:space="preserve"> -0.003*B2</f>
+        <v>-0.14952000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6">
-        <f xml:space="preserve"> -0.003*B3</f>
-        <v>-0.14952000000000001</v>
-      </c>
-      <c r="C6">
-        <f t="shared" ref="C6" si="1" xml:space="preserve"> -0.003*C3</f>
-        <v>-0.15</v>
-      </c>
-      <c r="D6">
-        <f xml:space="preserve"> -0.003*D3</f>
-        <v>-0.15048</v>
+        <v>-3.8999999999999998E-3</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7">
-        <v>-3.8999999999999998E-3</v>
-      </c>
-      <c r="C7">
-        <v>-3.8999999999999998E-3</v>
-      </c>
-      <c r="D7">
-        <v>-3.8999999999999998E-3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8">
-        <v>25</v>
-      </c>
-      <c r="C8">
-        <v>30</v>
-      </c>
-      <c r="D8">
-        <v>35</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B9">
-        <v>6.2</v>
-      </c>
-      <c r="C9">
-        <v>6.2</v>
-      </c>
-      <c r="D9">
-        <v>6.2</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B10">
-        <v>-50</v>
-      </c>
-      <c r="C10">
-        <v>-50</v>
-      </c>
-      <c r="D10">
-        <v>-50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
-        <v>100</v>
-      </c>
-      <c r="C11">
-        <v>110</v>
-      </c>
-      <c r="D11">
-        <v>120</v>
-      </c>
+      <c r="A11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
